--- a/outputs/house_republicans_committee_sponsor.xlsx
+++ b/outputs/house_republicans_committee_sponsor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -743,26 +743,134 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
       <c r="N2">
         <v>1</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
       <c r="AA2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
+      <c r="AI2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
       <c r="AV2">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
       </c>
       <c r="AX2">
         <v>1</v>
@@ -773,130 +881,427 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.25</v>
+      </c>
+      <c r="M3">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.75</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="Q3">
+        <v>0.75</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.75</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="AB3">
+        <v>0.5</v>
+      </c>
+      <c r="AC3">
+        <v>0.75</v>
+      </c>
+      <c r="AD3">
+        <v>0.5</v>
+      </c>
+      <c r="AE3">
+        <v>0.75</v>
+      </c>
+      <c r="AF3">
+        <v>0.75</v>
       </c>
       <c r="AG3">
         <v>0.5</v>
       </c>
+      <c r="AH3">
+        <v>0.75</v>
+      </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="AJ3">
+        <v>0.75</v>
+      </c>
+      <c r="AK3">
+        <v>0.75</v>
+      </c>
+      <c r="AL3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM3">
+        <v>0.75</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO3">
+        <v>0.75</v>
+      </c>
+      <c r="AP3">
+        <v>0.75</v>
+      </c>
+      <c r="AQ3">
+        <v>0.75</v>
+      </c>
+      <c r="AR3">
+        <v>0.75</v>
+      </c>
+      <c r="AS3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT3">
+        <v>0.5</v>
+      </c>
+      <c r="AU3">
+        <v>0.5</v>
       </c>
       <c r="AV3">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW3">
+        <v>0.75</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>0.8</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>0.8</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="W4">
+        <v>0.8</v>
+      </c>
+      <c r="X4">
+        <v>0.8</v>
+      </c>
+      <c r="Y4">
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.8</v>
+      </c>
+      <c r="AD4">
+        <v>0.6</v>
+      </c>
+      <c r="AE4">
+        <v>0.8</v>
+      </c>
+      <c r="AF4">
+        <v>0.8</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AH4">
+        <v>0.8</v>
+      </c>
+      <c r="AI4">
+        <v>0.6</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8</v>
+      </c>
+      <c r="AK4">
+        <v>0.8</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AN4">
+        <v>0.8</v>
+      </c>
+      <c r="AO4">
+        <v>0.8</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AQ4">
+        <v>0.6</v>
+      </c>
+      <c r="AR4">
+        <v>0.8</v>
+      </c>
+      <c r="AS4">
+        <v>0.8</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AU4">
+        <v>0.8</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AW4">
+        <v>0.6</v>
+      </c>
+      <c r="AX4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
         <v>1</v>
       </c>
     </row>
@@ -904,146 +1309,452 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M6">
+        <v>0.75</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S6">
+        <v>0.8</v>
+      </c>
+      <c r="T6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AB6">
+        <v>0.75</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AF6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AJ6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AK6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AL6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AM6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AN6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AO6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AP6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AS6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AW6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AX6">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0.5</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+      <c r="AE7">
+        <v>0.5</v>
+      </c>
+      <c r="AF7">
+        <v>0.5</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AI7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>0.5</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AM7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AN7">
+        <v>0.5</v>
+      </c>
+      <c r="AO7">
+        <v>0.5</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AQ7">
+        <v>0.5</v>
+      </c>
+      <c r="AR7">
+        <v>0.5</v>
+      </c>
+      <c r="AS7">
+        <v>0.5</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AU7">
+        <v>0.5</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AX7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
+        <v>0.75</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.75</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.75</v>
+      </c>
       <c r="R8">
         <v>1</v>
       </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
       <c r="V8">
+        <v>0.75</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0.75</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
+      <c r="AM8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
       <c r="AP8">
         <v>1</v>
       </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
       <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
         <v>1</v>
       </c>
     </row>
@@ -1051,217 +1762,604 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M9">
+        <v>0.5</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+      <c r="AC9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL9">
+        <v>0.5</v>
+      </c>
+      <c r="AM9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AQ9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX9">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V10">
+        <v>0.6</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y10">
+        <v>0.8</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="AB10">
+        <v>0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AE10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AK10">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AM10">
+        <v>0.4</v>
+      </c>
+      <c r="AN10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AO10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AP10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AQ10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AS10">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AX10">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0.42857142857142855</v>
+      </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.625</v>
+      </c>
+      <c r="H11">
+        <v>0.75</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="L11">
+        <v>0.625</v>
+      </c>
+      <c r="M11">
+        <v>0.7142857142857143</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P11">
+        <v>0.75</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="V11">
+        <v>0.625</v>
+      </c>
+      <c r="W11">
+        <v>0.8</v>
+      </c>
+      <c r="X11">
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.875</v>
+      </c>
+      <c r="AE11">
+        <v>0.75</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AH11">
+        <v>0.875</v>
+      </c>
+      <c r="AI11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AJ11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AK11">
+        <v>0.75</v>
+      </c>
+      <c r="AL11">
+        <v>0.875</v>
+      </c>
+      <c r="AM11">
+        <v>0.5</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AO11">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AP11">
+        <v>0.7142857142857143</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0.875</v>
+      </c>
+      <c r="AS11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT11">
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
       <c r="T12">
         <v>1</v>
       </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
         <v>1</v>
       </c>
     </row>
@@ -1269,98 +2367,452 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
+        <v>0.5</v>
+      </c>
+      <c r="Z13">
+        <v>0.5</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.5</v>
+      </c>
+      <c r="AD13">
+        <v>0.5</v>
+      </c>
+      <c r="AE13">
+        <v>0.5</v>
+      </c>
+      <c r="AF13">
+        <v>0.5</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH13">
+        <v>0.5</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.5</v>
+      </c>
+      <c r="AK13">
+        <v>0.5</v>
+      </c>
+      <c r="AL13">
+        <v>0.5</v>
+      </c>
+      <c r="AM13">
+        <v>0.5</v>
+      </c>
+      <c r="AN13">
+        <v>0.5</v>
+      </c>
+      <c r="AO13">
+        <v>0.5</v>
+      </c>
+      <c r="AP13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13">
+        <v>0.5</v>
+      </c>
+      <c r="AR13">
+        <v>0.5</v>
+      </c>
+      <c r="AS13">
+        <v>0.5</v>
+      </c>
+      <c r="AT13">
+        <v>0.5</v>
+      </c>
+      <c r="AU13">
+        <v>0.5</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AW13">
+        <v>0.5</v>
+      </c>
+      <c r="AX13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
       <c r="I14">
+        <v>0.8</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="S14">
+        <v>0.6</v>
+      </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V14">
         <v>1</v>
       </c>
+      <c r="W14">
+        <v>0.6</v>
+      </c>
+      <c r="X14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y14">
+        <v>0.8</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
       <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.6</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0.8</v>
+      </c>
+      <c r="AI14">
+        <v>0.6</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
         <v>1</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
+      <c r="AM14">
+        <v>0.4</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
       <c r="AP14">
+        <v>0.6</v>
+      </c>
+      <c r="AQ14">
+        <v>0.8</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0.8</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
       <c r="T15">
         <v>1</v>
       </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
         <v>1</v>
       </c>
     </row>
@@ -1368,19 +2820,148 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
       <c r="AA16">
+        <v>0.5</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX16">
         <v>1</v>
       </c>
     </row>
@@ -1388,16 +2969,148 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
       <c r="T17">
         <v>1</v>
       </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
         <v>1</v>
       </c>
     </row>
@@ -1405,25 +3118,142 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
       <c r="N18">
         <v>1</v>
       </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
       <c r="R18">
         <v>1</v>
       </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
       <c r="V18">
         <v>1</v>
       </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
       <c r="AA18">
         <v>1</v>
       </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
       <c r="AL18">
         <v>1</v>
       </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
       <c r="AP18">
         <v>1</v>
       </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
       <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
         <v>1</v>
       </c>
     </row>
@@ -1431,8 +3261,14 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C19">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1440,34 +3276,133 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="O19">
         <v>1</v>
       </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
+      <c r="U19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AJ19">
         <v>1</v>
       </c>
       <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
         <v>1</v>
       </c>
     </row>
@@ -1475,90 +3410,288 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>0.75</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P20">
+        <v>0.75</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="S20">
+        <v>0.66666666666666663</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="V20">
+        <v>0.75</v>
+      </c>
+      <c r="W20">
+        <v>0.66666666666666663</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="Z20">
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE20">
+        <v>0.75</v>
+      </c>
+      <c r="AF20">
+        <v>0.75</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK20">
+        <v>0.75</v>
+      </c>
+      <c r="AL20">
+        <v>0.75</v>
+      </c>
+      <c r="AM20">
+        <v>0.5</v>
+      </c>
+      <c r="AN20">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AP20">
+        <v>0.75</v>
+      </c>
+      <c r="AQ20">
+        <v>0.75</v>
+      </c>
+      <c r="AR20">
+        <v>0.75</v>
+      </c>
+      <c r="AS20">
+        <v>0.75</v>
+      </c>
+      <c r="AT20">
+        <v>0.75</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AV20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AW20">
+        <v>0.75</v>
+      </c>
+      <c r="AX20">
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
       <c r="U21">
         <v>1</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
       <c r="Y21">
         <v>1</v>
       </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
       <c r="AH21">
         <v>1</v>
       </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
       <c r="AL21">
         <v>1</v>
       </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
       <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
         <v>1</v>
       </c>
     </row>
@@ -1566,54 +3699,300 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.5</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
+        <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.5</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <v>0.5</v>
+      </c>
+      <c r="AE22">
+        <v>0.5</v>
+      </c>
+      <c r="AF22">
+        <v>0.5</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0.5</v>
+      </c>
+      <c r="AK22">
+        <v>0.5</v>
+      </c>
+      <c r="AL22">
+        <v>0.5</v>
+      </c>
+      <c r="AM22">
+        <v>0.5</v>
+      </c>
+      <c r="AN22">
+        <v>0.5</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>0.5</v>
+      </c>
+      <c r="AS22">
+        <v>0.5</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>0.5</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AW22">
+        <v>0.5</v>
+      </c>
+      <c r="AX22">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
       <c r="T23">
         <v>1</v>
       </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
       <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
         <v>1</v>
       </c>
     </row>
@@ -1621,55 +4000,151 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>0.75</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <v>0.75</v>
+      </c>
+      <c r="H24">
+        <v>0.75</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <v>0.75</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="L24">
+        <v>0.75</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
       <c r="N24">
+        <v>0.75</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="S24">
+        <v>0.75</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W24">
+        <v>0.75</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
         <v>1</v>
       </c>
       <c r="AD24">
+        <v>0.75</v>
+      </c>
+      <c r="AE24">
         <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
       </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0.25</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
       <c r="AL24">
         <v>1</v>
       </c>
+      <c r="AM24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>0.75</v>
+      </c>
+      <c r="AT24">
+        <v>0.75</v>
       </c>
       <c r="AU24">
+        <v>0.75</v>
+      </c>
+      <c r="AV24">
         <v>1</v>
       </c>
       <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
         <v>1</v>
       </c>
     </row>
@@ -1677,146 +4152,452 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE25">
+        <v>0.5</v>
+      </c>
+      <c r="AF25">
+        <v>0.5</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH25">
+        <v>0.5</v>
+      </c>
+      <c r="AI25">
+        <v>0.5</v>
+      </c>
+      <c r="AJ25">
+        <v>0.5</v>
+      </c>
+      <c r="AK25">
+        <v>0.5</v>
+      </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>0.5</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>0.5</v>
+      </c>
+      <c r="AU25">
+        <v>0.5</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AW25">
+        <v>0.5</v>
+      </c>
+      <c r="AX25">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
+        <v>0.8</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="J26">
+        <v>0.8</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="M26">
+        <v>0.6</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="O26">
+        <v>0.8</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q26">
+        <v>0.8</v>
+      </c>
+      <c r="R26">
+        <v>0.8</v>
+      </c>
+      <c r="S26">
+        <v>0.8</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="V26">
+        <v>0.6</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="Z26">
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AB26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD26">
+        <v>0.8</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AF26">
+        <v>0.8</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AI26">
+        <v>0.6</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AM26">
+        <v>0.6</v>
+      </c>
+      <c r="AN26">
+        <v>0.8</v>
+      </c>
+      <c r="AO26">
+        <v>0.6</v>
+      </c>
+      <c r="AP26">
+        <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AR26">
+        <v>0.8</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AU26">
+        <v>0.8</v>
       </c>
       <c r="AV26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW26">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AX26">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C27">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.66666666666666663</v>
       </c>
       <c r="K27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U27">
         <v>1</v>
       </c>
+      <c r="V27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
       <c r="Z27">
         <v>1</v>
       </c>
       <c r="AA27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AW27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX27">
         <v>1</v>
       </c>
     </row>
@@ -1824,87 +4605,300 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D28">
+        <v>0.75</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>0.75</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="O28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="R28">
+        <v>0.75</v>
+      </c>
+      <c r="S28">
+        <v>0.75</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.75</v>
+      </c>
+      <c r="W28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X28">
+        <v>0.75</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0.75</v>
+      </c>
+      <c r="AD28">
+        <v>0.75</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG28">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.75</v>
+      </c>
+      <c r="AI28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK28">
+        <v>0.75</v>
+      </c>
+      <c r="AL28">
+        <v>0.75</v>
+      </c>
+      <c r="AM28">
+        <v>0.5</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AO28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP28">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>0.75</v>
+      </c>
+      <c r="AS28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT28">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AU28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AV28">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AW28">
+        <v>0.75</v>
       </c>
       <c r="AX28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29">
         <v>1</v>
       </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
       <c r="T29">
         <v>1</v>
       </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
       <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
         <v>1</v>
       </c>
     </row>
@@ -1912,63 +4906,300 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0.5</v>
+      </c>
+      <c r="AC30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM30">
+        <v>0.5</v>
+      </c>
+      <c r="AN30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AQ30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU30">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX30">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
         <v>1</v>
       </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
       <c r="T31">
         <v>1</v>
       </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
       <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
         <v>1</v>
       </c>
     </row>
@@ -1976,108 +5207,303 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="H32">
+        <v>0.75</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+      <c r="K32">
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>0.75</v>
+      </c>
+      <c r="S32">
+        <v>0.75</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="V32">
+        <v>0.75</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="Y32">
+        <v>0.75</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB32">
+        <v>0.5</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>0.75</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AF32">
+        <v>0.5</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AH32">
+        <v>0.75</v>
+      </c>
+      <c r="AI32">
+        <v>0.25</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AL32">
+        <v>0.75</v>
+      </c>
+      <c r="AM32">
+        <v>0.25</v>
+      </c>
+      <c r="AN32">
+        <v>0.75</v>
+      </c>
+      <c r="AO32">
+        <v>0.75</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.75</v>
+      </c>
+      <c r="AR32">
+        <v>0.75</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="AU32">
+        <v>0.75</v>
       </c>
       <c r="AV32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AW32">
+        <v>0.75</v>
+      </c>
+      <c r="AX32">
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
       <c r="V33">
         <v>1</v>
       </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
       <c r="AA33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
         <v>1</v>
       </c>
       <c r="AD33">
         <v>1</v>
       </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
       <c r="AL33">
         <v>1</v>
       </c>
+      <c r="AM33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
       <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
         <v>1</v>
       </c>
     </row>
@@ -2085,66 +5511,300 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="W34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA34">
+        <v>0.5</v>
+      </c>
+      <c r="AB34">
+        <v>0.5</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
+      <c r="AD34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AQ34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT34">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AU34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW34">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX34">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="D35">
         <v>1</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
       <c r="T35">
         <v>1</v>
       </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
       <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
         <v>1</v>
       </c>
     </row>
@@ -2152,16 +5812,148 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
       <c r="T36">
         <v>1</v>
       </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
       <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>1</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
         <v>1</v>
       </c>
     </row>
@@ -2169,28 +5961,151 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
       <c r="N37">
         <v>1</v>
       </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
       <c r="AA37">
+        <v>0.5</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>0.5</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>1</v>
+      </c>
+      <c r="AU37">
+        <v>1</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
         <v>1</v>
       </c>
     </row>
@@ -2198,16 +6113,148 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
       <c r="T38">
         <v>1</v>
       </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
       <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
         <v>1</v>
       </c>
     </row>
@@ -2215,122 +6262,434 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.7142857142857143</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M39">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S39">
+        <v>0.83333333333333337</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC39">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AE39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AH39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AI39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AM39">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AO39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR39">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AS39">
+        <v>0.8571428571428571</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AV39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AW39">
+        <v>0.5714285714285714</v>
       </c>
       <c r="AX39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C40">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D40">
         <v>1</v>
       </c>
+      <c r="E40">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F40">
         <v>1</v>
       </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
       <c r="T40">
         <v>1</v>
       </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
       <c r="AA40">
         <v>1</v>
       </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
       <c r="AM40">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AQ40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR40">
+        <v>1</v>
+      </c>
+      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AT40">
+        <v>1</v>
+      </c>
+      <c r="AU40">
+        <v>1</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
       <c r="N41">
         <v>1</v>
       </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
       <c r="R41">
         <v>1</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
       <c r="V41">
         <v>1</v>
       </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
       <c r="AA41">
         <v>1</v>
       </c>
-      <c r="AL41">
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>1</v>
       </c>
       <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AT41">
+        <v>1</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
         <v>1</v>
       </c>
     </row>
@@ -2338,48 +6697,192 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P42">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
+      <c r="R42">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y42">
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB42">
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD42">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AV42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW42">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX42">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>0.75</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43">
+        <v>0.75</v>
+      </c>
+      <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
       <c r="I43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J43">
+        <v>0.75</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0.75</v>
+      </c>
+      <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
@@ -2388,28 +6891,109 @@
       <c r="O43">
         <v>1</v>
       </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
+      <c r="S43">
+        <v>0.75</v>
+      </c>
       <c r="T43">
         <v>1</v>
       </c>
+      <c r="U43">
+        <v>0.75</v>
+      </c>
       <c r="V43">
         <v>1</v>
       </c>
+      <c r="W43">
+        <v>0.75</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0.75</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
       <c r="AA43">
+        <v>0.75</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
         <v>1</v>
       </c>
       <c r="AD43">
+        <v>0.75</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>0.5</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
         <v>1</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
+      <c r="AM43">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
       <c r="AP43">
+        <v>0.75</v>
+      </c>
+      <c r="AQ43">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>0.75</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
         <v>1</v>
       </c>
     </row>
@@ -2417,25 +7001,151 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
       <c r="F44">
         <v>1</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
       <c r="R44">
         <v>1</v>
       </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
       <c r="T44">
         <v>1</v>
       </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
       <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
         <v>1</v>
       </c>
       <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
+      <c r="AU44">
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
         <v>1</v>
       </c>
     </row>
@@ -2443,155 +7153,374 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z45">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB45">
+        <v>0.5</v>
+      </c>
+      <c r="AC45">
+        <v>0.5</v>
+      </c>
+      <c r="AD45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM45">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AQ45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT45">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AU45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW45">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AX45">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>0.4</v>
+      </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
+        <v>0.6</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="H46">
+        <v>0.8</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="J46">
+        <v>0.6</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46">
+        <v>0.6</v>
+      </c>
+      <c r="M46">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="O46">
+        <v>0.8</v>
+      </c>
+      <c r="P46">
+        <v>0.8</v>
+      </c>
+      <c r="Q46">
+        <v>0.6</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="S46">
+        <v>0.6</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="W46">
+        <v>0.6</v>
+      </c>
+      <c r="X46">
+        <v>0.75</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="Z46">
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0.8</v>
+      </c>
+      <c r="AD46">
+        <v>0.6</v>
+      </c>
+      <c r="AE46">
+        <v>0.8</v>
+      </c>
+      <c r="AF46">
+        <v>0.8</v>
       </c>
       <c r="AG46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AI46">
+        <v>0.4</v>
+      </c>
+      <c r="AJ46">
+        <v>0.8</v>
+      </c>
+      <c r="AK46">
+        <v>0.8</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AM46">
+        <v>0.4</v>
+      </c>
+      <c r="AN46">
+        <v>0.8</v>
+      </c>
+      <c r="AO46">
+        <v>0.8</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="AQ46">
+        <v>0.6</v>
+      </c>
+      <c r="AR46">
+        <v>0.8</v>
+      </c>
+      <c r="AS46">
+        <v>0.8</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="AU46">
+        <v>0.6</v>
       </c>
       <c r="AV46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW46">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AX46">
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
       <c r="F47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <v>0.8</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.6</v>
+      </c>
       <c r="L47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N47">
+        <v>0.8</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
+      <c r="Q47">
+        <v>0.8</v>
+      </c>
+      <c r="R47">
+        <v>0.8</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
       <c r="T47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U47">
+        <v>0.8</v>
+      </c>
+      <c r="V47">
+        <v>0.8</v>
+      </c>
+      <c r="W47">
         <v>1</v>
       </c>
       <c r="X47">
@@ -2600,66 +7529,231 @@
       <c r="Y47">
         <v>1</v>
       </c>
+      <c r="Z47">
+        <v>0.8</v>
+      </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>0.8</v>
+      </c>
+      <c r="AD47">
+        <v>0.75</v>
       </c>
       <c r="AE47">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AF47">
+        <v>0.8</v>
+      </c>
+      <c r="AG47">
+        <v>0.8</v>
       </c>
       <c r="AH47">
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ47">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK47">
+        <v>0.8</v>
+      </c>
+      <c r="AL47">
+        <v>0.75</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
         <v>1</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1</v>
       </c>
+      <c r="AS47">
+        <v>0.8</v>
+      </c>
+      <c r="AT47">
+        <v>0.75</v>
+      </c>
       <c r="AU47">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AV47">
+        <v>0.8</v>
+      </c>
+      <c r="AW47">
+        <v>1</v>
+      </c>
+      <c r="AX47">
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
       <c r="R48">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
       <c r="Y48">
         <v>1</v>
       </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
       <c r="AA48">
         <v>1</v>
       </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>0.5</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
       <c r="AH48">
         <v>1</v>
       </c>
       <c r="AI48">
         <v>1</v>
       </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
       <c r="AM48">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN48">
         <v>1</v>
       </c>
       <c r="AO48">
         <v>1</v>
       </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
       <c r="AR48">
         <v>1</v>
       </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
       <c r="AU48">
+        <v>1</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AW48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
         <v>1</v>
       </c>
     </row>
@@ -2667,6 +7761,12 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>0.75</v>
+      </c>
       <c r="D49">
         <v>1</v>
       </c>
@@ -2676,43 +7776,136 @@
       <c r="F49">
         <v>1</v>
       </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
       <c r="P49">
         <v>1</v>
       </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
       <c r="T49">
         <v>1</v>
       </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0.75</v>
+      </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
       <c r="AA49">
+        <v>0.75</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
         <v>1</v>
       </c>
       <c r="AE49">
         <v>1</v>
       </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0.75</v>
+      </c>
       <c r="AJ49">
         <v>1</v>
       </c>
       <c r="AK49">
         <v>1</v>
       </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
       <c r="AM49">
+        <v>0.5</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>0.75</v>
+      </c>
+      <c r="AR49">
         <v>1</v>
       </c>
       <c r="AS49">
         <v>1</v>
       </c>
       <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>1</v>
+      </c>
+      <c r="AV49">
+        <v>1</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
         <v>1</v>
       </c>
     </row>
@@ -2720,22 +7913,133 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
       <c r="Y50">
         <v>1</v>
       </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
       <c r="AH50">
         <v>1</v>
       </c>
       <c r="AI50">
         <v>1</v>
       </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
       <c r="AO50">
         <v>1</v>
       </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
       <c r="AR50">
         <v>1</v>
       </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
       <c r="AU50">
+        <v>1</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AX50">
         <v>1</v>
       </c>
     </row>
@@ -2743,75 +8047,300 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z51">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB51">
+        <v>0.5</v>
+      </c>
+      <c r="AC51">
+        <v>0.5</v>
+      </c>
+      <c r="AD51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM51">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AQ51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT51">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AU51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW51">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52">
         <v>1</v>
       </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
       <c r="F52">
         <v>1</v>
       </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
       <c r="T52">
         <v>1</v>
       </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
       <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>1</v>
+      </c>
+      <c r="AU52">
+        <v>1</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
         <v>1</v>
       </c>
     </row>
@@ -2822,13 +8351,133 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
       <c r="P53">
         <v>1</v>
       </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
       <c r="AI53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
         <v>1</v>
       </c>
       <c r="AX53">
@@ -2839,63 +8488,300 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
+      <c r="B54">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M54">
+        <v>0.33333333333333331</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R54">
+        <v>0.33333333333333331</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W54">
+        <v>0.5</v>
+      </c>
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+      <c r="Y54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF54">
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ54">
+        <v>0.5</v>
+      </c>
+      <c r="AK54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AN54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AP54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS54">
+        <v>0.5</v>
+      </c>
+      <c r="AT54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AU54">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV54">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW54">
+        <v>0.5</v>
+      </c>
+      <c r="AX54">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
       <c r="F55">
         <v>1</v>
       </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
       <c r="T55">
         <v>1</v>
       </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
       <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>1</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+      <c r="AX55">
         <v>1</v>
       </c>
     </row>
@@ -2903,37 +8789,145 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56">
         <v>1</v>
       </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
       <c r="F56">
         <v>1</v>
       </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K56">
+        <v>0.5</v>
+      </c>
+      <c r="L56">
+        <v>0.5</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
         <v>1</v>
       </c>
       <c r="T56">
+        <v>0.5</v>
+      </c>
+      <c r="U56">
+        <v>0.5</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>0.5</v>
       </c>
       <c r="AF56">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AG56">
+        <v>0.5</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0.5</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
+        <v>0.5</v>
       </c>
       <c r="AN56">
         <v>1</v>
       </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
       <c r="AQ56">
+        <v>0.5</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
         <v>1</v>
       </c>
       <c r="AU56">
+        <v>1</v>
+      </c>
+      <c r="AV56">
+        <v>1</v>
+      </c>
+      <c r="AW56">
         <v>1</v>
       </c>
       <c r="AX56">
@@ -2944,21 +8938,54 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
+      <c r="B57">
+        <v>0.75</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57">
         <v>1</v>
       </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
       <c r="F57">
         <v>1</v>
       </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0.75</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
       <c r="N57">
         <v>1</v>
       </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
       <c r="R57">
         <v>1</v>
       </c>
@@ -2968,25 +8995,94 @@
       <c r="T57">
         <v>1</v>
       </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
       <c r="V57">
         <v>1</v>
       </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
       <c r="AA57">
+        <v>0.75</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
         <v>1</v>
       </c>
       <c r="AD57">
         <v>1</v>
       </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>0.75</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>0.75</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
       <c r="AL57">
         <v>1</v>
       </c>
+      <c r="AM57">
+        <v>0.75</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
       <c r="AP57">
         <v>1</v>
       </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
       <c r="AR57">
         <v>1</v>
       </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
       <c r="AT57">
+        <v>1</v>
+      </c>
+      <c r="AU57">
+        <v>1</v>
+      </c>
+      <c r="AV57">
+        <v>1</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
         <v>1</v>
       </c>
     </row>
@@ -2994,119 +9090,212 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
+      <c r="B58">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D58">
+        <v>0.75</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H58">
+        <v>0.77777777777777779</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J58">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K58">
+        <v>0.66666666666666663</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="S58">
+        <v>0.75</v>
+      </c>
+      <c r="T58">
+        <v>0.77777777777777779</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z58">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB58">
+        <v>0.75</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AD58">
+        <v>0.75</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AF58">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AG58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AH58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AI58">
+        <v>0.55555555555555558</v>
       </c>
       <c r="AJ58">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AM58">
+        <v>0.75</v>
+      </c>
+      <c r="AN58">
+        <v>0.75</v>
+      </c>
+      <c r="AO58">
+        <v>0.77777777777777779</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AQ58">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AU58">
+        <v>0.66666666666666663</v>
       </c>
       <c r="AV58">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AW58">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AX58">
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
+      <c r="B59">
+        <v>0.4</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59">
         <v>1</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.8</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0.6</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
       <c r="N59">
         <v>1</v>
       </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0.8</v>
+      </c>
       <c r="R59">
         <v>1</v>
       </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
       <c r="T59">
         <v>1</v>
       </c>
@@ -3119,25 +9308,82 @@
       <c r="W59">
         <v>1</v>
       </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
       <c r="Y59">
         <v>1</v>
       </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
       <c r="AA59">
+        <v>0.5</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
         <v>1</v>
       </c>
       <c r="AH59">
         <v>1</v>
       </c>
+      <c r="AI59">
+        <v>0.6</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
       <c r="AL59">
         <v>1</v>
       </c>
+      <c r="AM59">
+        <v>0.8</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
       <c r="AP59">
         <v>1</v>
       </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
       <c r="AT59">
         <v>1</v>
       </c>
+      <c r="AU59">
+        <v>1</v>
+      </c>
+      <c r="AV59">
+        <v>1</v>
+      </c>
       <c r="AW59">
+        <v>1</v>
+      </c>
+      <c r="AX59">
         <v>1</v>
       </c>
     </row>
@@ -3145,16 +9391,148 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60">
         <v>1</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
       <c r="F60">
         <v>1</v>
       </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
       <c r="T60">
         <v>1</v>
       </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
       <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>1</v>
+      </c>
+      <c r="AV60">
+        <v>1</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
         <v>1</v>
       </c>
     </row>
@@ -3162,25 +9540,148 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
       <c r="D61">
         <v>1</v>
       </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
       <c r="F61">
         <v>1</v>
       </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.5</v>
+      </c>
       <c r="K61">
+        <v>0.5</v>
+      </c>
+      <c r="L61">
+        <v>0.5</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U61">
         <v>1</v>
       </c>
+      <c r="V61">
+        <v>0.5</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
       <c r="Z61">
         <v>1</v>
       </c>
       <c r="AA61">
+        <v>0.5</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>0.5</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>0.5</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>0.5</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AT61">
+        <v>1</v>
+      </c>
+      <c r="AU61">
+        <v>1</v>
+      </c>
+      <c r="AV61">
+        <v>0.5</v>
+      </c>
+      <c r="AW61">
+        <v>0.5</v>
+      </c>
+      <c r="AX61">
         <v>1</v>
       </c>
     </row>
@@ -3188,14 +9689,59 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
+      <c r="B62">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C62">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D62">
         <v>1</v>
       </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G62">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M62">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -3203,25 +9749,91 @@
       <c r="U62">
         <v>1</v>
       </c>
+      <c r="V62">
+        <v>0.8</v>
+      </c>
       <c r="W62">
         <v>1</v>
       </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
       <c r="Y62">
         <v>1</v>
       </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
       <c r="AA62">
+        <v>0.8</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
         <v>1</v>
       </c>
       <c r="AH62">
         <v>1</v>
       </c>
+      <c r="AI62">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
       <c r="AL62">
         <v>1</v>
       </c>
+      <c r="AM62">
+        <v>0.8</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+      <c r="AS62">
+        <v>1</v>
+      </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AU62">
+        <v>1</v>
+      </c>
+      <c r="AV62">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AW62">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AX62">
         <v>1</v>
       </c>
     </row>
@@ -3229,34 +9841,148 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
       <c r="D63">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
       <c r="F63">
         <v>1</v>
       </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
       <c r="N63">
         <v>1</v>
       </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
       <c r="R63">
         <v>1</v>
       </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
       <c r="T63">
         <v>1</v>
       </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
       <c r="V63">
         <v>1</v>
       </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
       <c r="AA63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
         <v>1</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
       <c r="AP63">
         <v>1</v>
       </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
       <c r="AT63">
+        <v>1</v>
+      </c>
+      <c r="AU63">
+        <v>1</v>
+      </c>
+      <c r="AV63">
+        <v>1</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
         <v>1</v>
       </c>
     </row>

--- a/outputs/house_republicans_committee_sponsor.xlsx
+++ b/outputs/house_republicans_committee_sponsor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
